--- a/medicine/Enfance/Laure_Angélis/Laure_Angélis.xlsx
+++ b/medicine/Enfance/Laure_Angélis/Laure_Angélis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Laure_Ang%C3%A9lis</t>
+          <t>Laure_Angélis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Laure Angélis, née le 16 septembre 1971, est une auteure française.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Laure_Ang%C3%A9lis</t>
+          <t>Laure_Angélis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille
-Laure Angélis est née 16 septembre 1971[1]. Elle est la sœur de Jean-Luc Angélis.
-Guidisme
-De formation juridique, après de nombreuses années de guidisme[2], elle est cheftaine au sein de l’Association des guides et scouts d'Europe où elle a des responsabilités auprès des guides-aînées[1]. 
-Auteure et directrice de collection
-Laure Angélis est directrice de la collection Défi aux Éditions Téqui[2]. Travaillant en étroite collaboration avec Axel Vachon, un autre auteur de la collection, elle a notamment beaucoup aidé de jeunes auteurs à démarrer.
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Laure Angélis est née 16 septembre 1971. Elle est la sœur de Jean-Luc Angélis.
 </t>
         </is>
       </c>
@@ -529,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Laure_Ang%C3%A9lis</t>
+          <t>Laure_Angélis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +557,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Guidisme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De formation juridique, après de nombreuses années de guidisme, elle est cheftaine au sein de l’Association des guides et scouts d'Europe où elle a des responsabilités auprès des guides-aînées. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Laure_Angélis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laure_Ang%C3%A9lis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Auteure et directrice de collection</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Laure Angélis est directrice de la collection Défi aux Éditions Téqui. Travaillant en étroite collaboration avec Axel Vachon, un autre auteur de la collection, elle a notamment beaucoup aidé de jeunes auteurs à démarrer.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Laure_Angélis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laure_Ang%C3%A9lis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Trois tomes de la série Ondine :
 Ondine, Éditions Pierre Téqui, 2000  (ISBN 978-2-74030-572-0)
